--- a/biology/Médecine/Méthyldopa/Méthyldopa.xlsx
+++ b/biology/Médecine/Méthyldopa/Méthyldopa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9thyldopa</t>
+          <t>Méthyldopa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le méthyldopa ou alpha-méthyldopa (vendu sous les noms Aldomet, Apo-Methyldopa, Dopamet, Novomedopa) est un médicament antihypertenseur d'action centrale qui agit en stimulant les récepteurs alpha 2 présynaptique . Son usage est à présent restreint, car d'autres classes de médicaments plus sûres ont été développées. Cependant il continue à être utilisé dans certains cas, surtout dans le traitement de l'hypertension gestationnelle (autrefois connue sous le nom d'hypertension induite par la grossesse).
-Il fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[2].
-En 2022, un bilan des études cliniques portant sur l'usage du méthyldopa lors de la grossesse est effectué en Belgique; les auteurs ne trouvent que deux études, laissant savoir qu'il y a encore un manque d'information sur son usage pour traiter l'hypertension gestationnelle, même si le composé est le choix de première ligne pour traiter la condition [3].
+Il fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
+En 2022, un bilan des études cliniques portant sur l'usage du méthyldopa lors de la grossesse est effectué en Belgique; les auteurs ne trouvent que deux études, laissant savoir qu'il y a encore un manque d'information sur son usage pour traiter l'hypertension gestationnelle, même si le composé est le choix de première ligne pour traiter la condition .
 </t>
         </is>
       </c>
